--- a/doc/R101_硬件BUG记录_20200608.xlsx
+++ b/doc/R101_硬件BUG记录_20200608.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="3030" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="20370" yWindow="3480" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>硬件</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,74 @@
   </si>
   <si>
     <t>R101  BUG记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V0.1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMT01的使用的两个引脚，无法完成温度采集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成可以采脉冲的引脚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源板与mcu板的6孔没有做镜像，无法正确安装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要做镜像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttl转485的RX，TX反了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需修改Rx，Tx引脚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配较为复杂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9600波特率，300ms采集100个寄存器的数据，modbus会报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化波形获取的代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦封起来，无法进行修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要加上基于modbus的升级IAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装配较为复杂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安装方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无对应工装测试频响，校准灵敏度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个工装。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ttl转485的芯片的2脚需要接地</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -533,15 +601,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="57.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.875" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -577,7 +645,9 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,41 +693,63 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -667,92 +759,102 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -762,9 +864,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
@@ -773,85 +875,93 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -861,9 +971,9 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
@@ -872,14 +982,40 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/R101_硬件BUG记录_20200608.xlsx
+++ b/doc/R101_硬件BUG记录_20200608.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C5B37-D95F-4929-9734-1701ED87134B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="3480" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>硬件</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,10 +113,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需修改Rx，Tx引脚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>装配较为复杂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,14 +150,40 @@
   </si>
   <si>
     <t>ttl转485的芯片的2脚需要接地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源座底部布线有隐患</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>需修改Rx，Tx引脚，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6脚D是接MCU TX, 3脚接 MCU Rx，
+485隔离模块一般需要交叉，只是芯片正常都是直接对接</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模电感建议封装大点的，小的容易坏和虚焊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +224,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -288,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -302,6 +341,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -600,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,31 +660,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
@@ -656,15 +699,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -723,15 +766,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -745,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
@@ -771,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -785,89 +828,91 @@
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -877,7 +922,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -890,9 +935,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
@@ -901,80 +946,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -984,7 +1029,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -997,9 +1042,9 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -1008,14 +1053,27 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
